--- a/GUI + Reviews/202503/Review 202503/Dataiku/FRD4P_EMS_2025-03-18 23_59_59_2025-03-19-07-05-06.xlsx
+++ b/GUI + Reviews/202503/Review 202503/Dataiku/FRD4P_EMS_2025-03-18 23_59_59_2025-03-19-07-05-06.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202503/Review 202503/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9BAE32D360ECD59896F7037523E95AD14FEC385E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BCA8CE-9E58-4A5C-9021-82CD7FF49AD1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="142">
   <si>
     <t>Company</t>
   </si>
@@ -412,13 +431,43 @@
   </si>
   <si>
     <t>XMAD</t>
+  </si>
+  <si>
+    <t>AIR LIQUIDE</t>
+  </si>
+  <si>
+    <t>FR0000120073</t>
+  </si>
+  <si>
+    <t>MITSUBISHI HEAVY</t>
+  </si>
+  <si>
+    <t>JP3900000005</t>
+  </si>
+  <si>
+    <t>PARKER-HANNIFIN CORP</t>
+  </si>
+  <si>
+    <t>US7010941042</t>
+  </si>
+  <si>
+    <t>STRYKER CORPORATION</t>
+  </si>
+  <si>
+    <t>US8636671013</t>
+  </si>
+  <si>
+    <t>TOYOTA TSUSHO</t>
+  </si>
+  <si>
+    <t>JP3635000007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,13 +530,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +582,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -559,6 +616,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -593,9 +651,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,14 +827,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -818,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -826,8 +887,22 @@
       <c r="H2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,$K$2:$K$41,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="b">
+        <f>ISNUMBER(MATCH(K2,$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -844,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -852,8 +927,22 @@
       <c r="H3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I41" si="0">ISNUMBER(MATCH(B3,$K$2:$K$41,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L41" si="1">ISNUMBER(MATCH(K3,$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -867,7 +956,7 @@
         <v>243667720</v>
       </c>
       <c r="E4">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -878,8 +967,22 @@
       <c r="H4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -904,8 +1007,22 @@
       <c r="H5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -930,8 +1047,22 @@
       <c r="H6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -945,7 +1076,7 @@
         <v>2214797873</v>
       </c>
       <c r="E7">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -956,8 +1087,22 @@
       <c r="H7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -982,8 +1127,22 @@
       <c r="H8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1159,7 @@
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -1008,8 +1167,22 @@
       <c r="H9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -1034,8 +1207,22 @@
       <c r="H10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G11" t="s">
         <v>97</v>
@@ -1060,8 +1247,22 @@
       <c r="H11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1279,7 @@
         <v>0.9</v>
       </c>
       <c r="F12">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -1086,8 +1287,22 @@
       <c r="H12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1112,8 +1327,22 @@
       <c r="H13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1359,7 @@
         <v>0.8</v>
       </c>
       <c r="F14">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G14" t="s">
         <v>97</v>
@@ -1138,8 +1367,22 @@
       <c r="H14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1164,8 +1407,22 @@
       <c r="H15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G16" t="s">
         <v>97</v>
@@ -1190,8 +1447,22 @@
       <c r="H16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -1216,8 +1487,22 @@
       <c r="H17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1242,8 +1527,22 @@
       <c r="H18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1257,7 +1556,7 @@
         <v>123420778</v>
       </c>
       <c r="E19">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1268,8 +1567,22 @@
       <c r="H19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1599,7 @@
         <v>0.85</v>
       </c>
       <c r="F20">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -1294,8 +1607,22 @@
       <c r="H20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1312,7 +1639,7 @@
         <v>0.75</v>
       </c>
       <c r="F21">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -1320,8 +1647,22 @@
       <c r="H21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1346,8 +1687,22 @@
       <c r="H22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1372,8 +1727,22 @@
       <c r="H23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1398,8 +1767,22 @@
       <c r="H24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G25" t="s">
         <v>97</v>
@@ -1424,8 +1807,22 @@
       <c r="H25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1450,8 +1847,22 @@
       <c r="H26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1468,7 +1879,7 @@
         <v>0.95</v>
       </c>
       <c r="F27">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G27" t="s">
         <v>97</v>
@@ -1476,8 +1887,22 @@
       <c r="H27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1494,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G28" t="s">
         <v>97</v>
@@ -1502,8 +1927,22 @@
       <c r="H28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1517,10 +1956,10 @@
         <v>180869312</v>
       </c>
       <c r="E29">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F29">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G29" t="s">
         <v>97</v>
@@ -1528,8 +1967,22 @@
       <c r="H29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1996,7 @@
         <v>295722284</v>
       </c>
       <c r="E30">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1554,8 +2007,22 @@
       <c r="H30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +2036,7 @@
         <v>298233069</v>
       </c>
       <c r="E31">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1580,8 +2047,22 @@
       <c r="H31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1606,8 +2087,22 @@
       <c r="H32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1632,8 +2127,22 @@
       <c r="H33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1658,8 +2167,22 @@
       <c r="H34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +2199,7 @@
         <v>0.95</v>
       </c>
       <c r="F35">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -1684,8 +2207,22 @@
       <c r="H35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1710,8 +2247,22 @@
       <c r="H36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1728,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -1736,8 +2287,22 @@
       <c r="H37" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1754,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -1762,8 +2327,22 @@
       <c r="H38" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1780,7 +2359,7 @@
         <v>0.65</v>
       </c>
       <c r="F39">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -1788,8 +2367,22 @@
       <c r="H39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1806,7 +2399,7 @@
         <v>0.75</v>
       </c>
       <c r="F40">
-        <v>0.59898293876723</v>
+        <v>0.59898293876722997</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -1814,8 +2407,22 @@
       <c r="H40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1840,21 +2447,38 @@
       <c r="H41" t="s">
         <v>100</v>
       </c>
+      <c r="I41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +2500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +2511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +2522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +2533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +2544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1931,7 +2555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1942,7 +2566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +2577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1964,7 +2588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +2599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1986,7 +2610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +2621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2008,7 +2632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2021,18 +2645,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2054,7 +2681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -2065,7 +2692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -2076,7 +2703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2087,7 +2714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2098,7 +2725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -2109,7 +2736,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2120,7 +2747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2131,7 +2758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2142,7 +2769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2153,7 +2780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -2164,7 +2791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -2175,7 +2802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2186,7 +2813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -2199,5 +2826,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>